--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1686.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1686.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8253389777581556</v>
+        <v>0.7086029052734375</v>
       </c>
       <c r="B1">
-        <v>3.973957938913383</v>
+        <v>1.009019613265991</v>
       </c>
       <c r="C1">
-        <v>2.356458385513805</v>
+        <v>4.411684513092041</v>
       </c>
       <c r="D1">
-        <v>1.909421026861082</v>
+        <v>2.1846923828125</v>
       </c>
       <c r="E1">
-        <v>1.776344878224865</v>
+        <v>1.64983594417572</v>
       </c>
     </row>
   </sheetData>
